--- a/data/extracted_data/raw_round2/Kankaanpaa_2005_Fig_7.xlsx
+++ b/data/extracted_data/raw_round2/Kankaanpaa_2005_Fig_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{203A5AAA-CDF2-E940-9307-2F14A471AD56}"/>
   <bookViews>
-    <workbookView xWindow="23500" yWindow="10040" windowWidth="27640" windowHeight="16940" xr2:uid="{7679BA49-03DA-A647-9292-B5A0953AA1C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7679BA49-03DA-A647-9292-B5A0953AA1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>time</t>
+    <t>species</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>heptopancreas</t>
   </si>
   <si>
-    <t>heptopancreas-MC-LR injection</t>
+    <t>MC-LR injection</t>
   </si>
   <si>
-    <t>heptopancreas-NODLN-containing feed</t>
+    <t>NODLN-containing feed</t>
   </si>
   <si>
-    <t>muscle-MC-LR injection</t>
+    <t>muscle</t>
   </si>
   <si>
-    <t>muscle-NODLN-containing feed</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -113,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,257 +412,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A33166-D16E-1842-9811-BF0819D1CE52}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.27137970353478003</v>
+      </c>
+      <c r="D2">
+        <v>153.61459521094599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.95324971493728505</v>
+      </c>
+      <c r="D3">
+        <v>144.62941847206301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.20296465222349</v>
+      </c>
+      <c r="D4">
+        <v>94.047890535917901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.7696693272519899</v>
+      </c>
+      <c r="D5">
+        <v>90.125427594070601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.6282782212086602</v>
+      </c>
+      <c r="D6">
+        <v>41.6875712656784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>26.923076923076898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15.4126213592232</v>
+      </c>
+      <c r="D8">
+        <v>372.30769230769198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25.315533980582501</v>
+      </c>
+      <c r="D9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>48.834951456310698</v>
+      </c>
+      <c r="D10">
+        <v>446.15384615384602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75.242718446601899</v>
+      </c>
+      <c r="D11">
+        <v>187.692307692307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>95.873786407767</v>
+      </c>
+      <c r="D12">
+        <v>261.53846153846098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.361967074715071</v>
+      </c>
+      <c r="D13">
+        <v>5.0978260869565197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2625580413676598</v>
+      </c>
+      <c r="D14">
+        <v>2.13043478260869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.8951034191642</v>
+      </c>
+      <c r="D15">
+        <v>0.83695652173913204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.52933727311102</v>
+      </c>
+      <c r="D16">
+        <v>1.0652173913043499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.76923076923077005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.4126213592232</v>
+      </c>
+      <c r="D18">
+        <v>0.69230769230769296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25.315533980582501</v>
+      </c>
+      <c r="D19">
+        <v>0.61538461538461298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>48.834951456310698</v>
+      </c>
+      <c r="D20">
+        <v>0.76923076923077005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>75.242718446601899</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.27137970353478003</v>
-      </c>
-      <c r="C2">
-        <v>153.61459521094599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.95324971493728505</v>
-      </c>
-      <c r="C3">
-        <v>144.62941847206301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.20296465222349</v>
-      </c>
-      <c r="C4">
-        <v>94.047890535917901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.7696693272519899</v>
-      </c>
-      <c r="C5">
-        <v>90.125427594070601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.6282782212086602</v>
-      </c>
-      <c r="C6">
-        <v>41.6875712656784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>26.923076923076898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15.4126213592232</v>
-      </c>
-      <c r="C8">
-        <v>372.30769230769198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25.315533980582501</v>
-      </c>
-      <c r="C9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>48.834951456310698</v>
-      </c>
-      <c r="C10">
-        <v>446.15384615384602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>75.242718446601899</v>
-      </c>
-      <c r="C11">
-        <v>187.692307692307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
         <v>95.873786407767</v>
       </c>
-      <c r="C12">
-        <v>261.53846153846098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.361967074715071</v>
-      </c>
-      <c r="C13">
-        <v>5.0978260869565197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.2625580413676598</v>
-      </c>
-      <c r="C14">
-        <v>2.13043478260869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.8951034191642</v>
-      </c>
-      <c r="C15">
-        <v>0.83695652173913204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>9.52933727311102</v>
-      </c>
-      <c r="C16">
-        <v>1.0652173913043499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0.76923076923077005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15.4126213592232</v>
-      </c>
-      <c r="C18">
-        <v>0.69230769230769296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>25.315533980582501</v>
-      </c>
-      <c r="C19">
-        <v>0.61538461538461298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1">
-        <v>48.834951456310698</v>
-      </c>
-      <c r="C20">
-        <v>0.76923076923077005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1">
-        <v>75.242718446601899</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>95.873786407767</v>
-      </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.84615384615384603</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Kankaanpaa_2005_Fig_7.xlsx
+++ b/data/extracted_data/raw_round2/Kankaanpaa_2005_Fig_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{203A5AAA-CDF2-E940-9307-2F14A471AD56}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE811FD6-9926-E44C-959B-E16A0EECC777}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7679BA49-03DA-A647-9292-B5A0953AA1C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{7679BA49-03DA-A647-9292-B5A0953AA1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -113,6 +119,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,324 +422,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A33166-D16E-1842-9811-BF0819D1CE52}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.27137970353478003</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>153.61459521094599</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.95324971493728505</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>144.62941847206301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
         <v>2.20296465222349</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>94.047890535917901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>3.7696693272519899</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>90.125427594070601</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>9.6282782212086602</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>41.6875712656784</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>26.923076923076898</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>15.4126213592232</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+      <c r="E8">
         <v>372.30769230769198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>25.315533980582501</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24</v>
+      </c>
+      <c r="E9">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>48.834951456310698</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48</v>
+      </c>
+      <c r="E10">
         <v>446.15384615384602</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
         <v>75.242718446601899</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>187.692307692307</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
         <v>95.873786407767</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>261.53846153846098</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.361967074715071</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5.0978260869565197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
         <v>2.2625580413676598</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.13043478260869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
         <v>3.8951034191642</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.83695652173913204</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
         <v>9.52933727311102</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.0652173913043499</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.76923076923077005</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
-        <v>15.4126213592232</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18">
         <v>0.69230769230769296</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
-        <v>25.315533980582501</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24</v>
+      </c>
+      <c r="E19">
         <v>0.61538461538461298</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1">
-        <v>48.834951456310698</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>48</v>
+      </c>
+      <c r="E20">
         <v>0.76923076923077005</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
         <v>75.242718446601899</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
         <v>95.873786407767</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.84615384615384603</v>
       </c>
     </row>
